--- a/2016SuperRugby/Weekly Forecasts/Round_9.xlsx
+++ b/2016SuperRugby/Weekly Forecasts/Round_9.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RugbyPredictifier\RugbyPredictifier\2016SuperRugby\Weekly Forecasts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Friday" sheetId="1" r:id="rId1"/>
     <sheet name="Saturday" sheetId="2" r:id="rId2"/>
     <sheet name="Sunday" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
   <si>
     <t>Chance of Winning</t>
   </si>
@@ -141,12 +146,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#0%"/>
     <numFmt numFmtId="165" formatCode="#0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +432,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -473,7 +486,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -505,9 +518,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,6 +553,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -714,7 +729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -722,9 +737,15 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:61">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
@@ -747,41 +768,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:61">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <v>0.602176</v>
+        <v>0.60217600000000004</v>
       </c>
       <c r="C2" s="6">
-        <v>0.3638352</v>
+        <v>0.36383520000000003</v>
       </c>
       <c r="E2" s="6">
-        <v>0.2660698</v>
+        <v>0.26606980000000002</v>
       </c>
       <c r="F2" s="6">
-        <v>0.7157986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:61">
+        <v>0.71579859999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>21.5186044</v>
+        <v>21.518604400000001</v>
       </c>
       <c r="C3" s="7">
-        <v>16.7524124</v>
+        <v>16.752412400000001</v>
       </c>
       <c r="E3" s="7">
-        <v>24.917267</v>
+        <v>24.917266999999999</v>
       </c>
       <c r="F3" s="7">
         <v>37.2236482</v>
       </c>
     </row>
-    <row r="4" spans="1:61">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -798,7 +819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:61">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -815,7 +836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:61">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -832,7 +853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:61">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -849,7 +870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:61">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -866,7 +887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:61">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -883,7 +904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:61">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -900,7 +921,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:61">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -917,7 +938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:61">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -934,7 +955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:61">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -951,7 +972,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:61">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -968,7 +989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:61">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -985,7 +1006,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:61">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1002,7 +1023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1019,7 +1040,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1036,7 +1057,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1053,7 +1074,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1070,7 +1091,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1087,7 +1108,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1104,35 +1125,35 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="6">
-        <v>0.160987</v>
+        <v>0.16098699999999999</v>
       </c>
       <c r="C23" s="6">
-        <v>0.0379744</v>
+        <v>3.7974399999999998E-2</v>
       </c>
       <c r="E23" s="6">
-        <v>0.0541886</v>
+        <v>5.4188600000000003E-2</v>
       </c>
       <c r="F23" s="6">
-        <v>0.3465096</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.34650959999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>0.1513836</v>
+        <v>0.15138360000000001</v>
       </c>
       <c r="C24" s="6">
-        <v>0.1756448</v>
+        <v>0.17564479999999999</v>
       </c>
       <c r="E24" s="6">
-        <v>0.1272068</v>
+        <v>0.12720680000000001</v>
       </c>
       <c r="F24" s="6">
         <v>0.1021952</v>
@@ -1144,7 +1165,890 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BI24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="B1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.17553840000000001</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.80957900000000005</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.3169286</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.66479759999999999</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.2213716</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.75258639999999999</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.9341296</v>
+      </c>
+      <c r="L2" s="6">
+        <v>5.2377199999999999E-2</v>
+      </c>
+      <c r="N2" s="6">
+        <v>4.9565600000000001E-2</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0.94421279999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>23.135382199999999</v>
+      </c>
+      <c r="C3" s="7">
+        <v>42.002634800000003</v>
+      </c>
+      <c r="E3" s="7">
+        <v>31.146378800000001</v>
+      </c>
+      <c r="F3" s="7">
+        <v>40.937439599999998</v>
+      </c>
+      <c r="H3" s="7">
+        <v>15.691625</v>
+      </c>
+      <c r="I3" s="7">
+        <v>28.077251400000002</v>
+      </c>
+      <c r="K3" s="7">
+        <v>30.279145</v>
+      </c>
+      <c r="L3" s="7">
+        <v>8.6296624000000008</v>
+      </c>
+      <c r="N3" s="7">
+        <v>19.129330400000001</v>
+      </c>
+      <c r="O3" s="7">
+        <v>53.796520600000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8</v>
+      </c>
+      <c r="K4" s="7">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7">
+        <v>14</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>6</v>
+      </c>
+      <c r="O5" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7">
+        <v>24</v>
+      </c>
+      <c r="E6" s="7">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7">
+        <v>24</v>
+      </c>
+      <c r="H6" s="7">
+        <v>6</v>
+      </c>
+      <c r="I6" s="7">
+        <v>14</v>
+      </c>
+      <c r="K6" s="7">
+        <v>17</v>
+      </c>
+      <c r="L6" s="7">
+        <v>3</v>
+      </c>
+      <c r="N6" s="7">
+        <v>8</v>
+      </c>
+      <c r="O6" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7">
+        <v>27</v>
+      </c>
+      <c r="H7" s="7">
+        <v>8</v>
+      </c>
+      <c r="I7" s="7">
+        <v>16</v>
+      </c>
+      <c r="K7" s="7">
+        <v>19</v>
+      </c>
+      <c r="L7" s="7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="7">
+        <v>9</v>
+      </c>
+      <c r="O7" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7">
+        <v>30</v>
+      </c>
+      <c r="E8" s="7">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7">
+        <v>29</v>
+      </c>
+      <c r="H8" s="7">
+        <v>9</v>
+      </c>
+      <c r="I8" s="7">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7">
+        <v>20</v>
+      </c>
+      <c r="L8" s="7">
+        <v>3</v>
+      </c>
+      <c r="N8" s="7">
+        <v>11</v>
+      </c>
+      <c r="O8" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>32</v>
+      </c>
+      <c r="E9" s="7">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7">
+        <v>31</v>
+      </c>
+      <c r="H9" s="7">
+        <v>9</v>
+      </c>
+      <c r="I9" s="7">
+        <v>20</v>
+      </c>
+      <c r="K9" s="7">
+        <v>22</v>
+      </c>
+      <c r="L9" s="7">
+        <v>5</v>
+      </c>
+      <c r="N9" s="7">
+        <v>12</v>
+      </c>
+      <c r="O9" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7">
+        <v>34</v>
+      </c>
+      <c r="E10" s="7">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7">
+        <v>34</v>
+      </c>
+      <c r="H10" s="7">
+        <v>11</v>
+      </c>
+      <c r="I10" s="7">
+        <v>22</v>
+      </c>
+      <c r="K10" s="7">
+        <v>24</v>
+      </c>
+      <c r="L10" s="7">
+        <v>6</v>
+      </c>
+      <c r="N10" s="7">
+        <v>14</v>
+      </c>
+      <c r="O10" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7">
+        <v>36</v>
+      </c>
+      <c r="E11" s="7">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
+        <v>12</v>
+      </c>
+      <c r="I11" s="7">
+        <v>23</v>
+      </c>
+      <c r="K11" s="7">
+        <v>26</v>
+      </c>
+      <c r="L11" s="7">
+        <v>6</v>
+      </c>
+      <c r="N11" s="7">
+        <v>15</v>
+      </c>
+      <c r="O11" s="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7">
+        <v>39</v>
+      </c>
+      <c r="E12" s="7">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7">
+        <v>38</v>
+      </c>
+      <c r="H12" s="7">
+        <v>14</v>
+      </c>
+      <c r="I12" s="7">
+        <v>25</v>
+      </c>
+      <c r="K12" s="7">
+        <v>28</v>
+      </c>
+      <c r="L12" s="7">
+        <v>6</v>
+      </c>
+      <c r="N12" s="7">
+        <v>17</v>
+      </c>
+      <c r="O12" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7">
+        <v>41</v>
+      </c>
+      <c r="E13" s="7">
+        <v>30</v>
+      </c>
+      <c r="F13" s="7">
+        <v>40</v>
+      </c>
+      <c r="H13" s="7">
+        <v>14</v>
+      </c>
+      <c r="I13" s="7">
+        <v>27</v>
+      </c>
+      <c r="K13" s="7">
+        <v>29</v>
+      </c>
+      <c r="L13" s="7">
+        <v>8</v>
+      </c>
+      <c r="N13" s="7">
+        <v>18</v>
+      </c>
+      <c r="O13" s="7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43</v>
+      </c>
+      <c r="E14" s="7">
+        <v>32</v>
+      </c>
+      <c r="F14" s="7">
+        <v>42</v>
+      </c>
+      <c r="H14" s="7">
+        <v>16</v>
+      </c>
+      <c r="I14" s="7">
+        <v>28</v>
+      </c>
+      <c r="K14" s="7">
+        <v>31</v>
+      </c>
+      <c r="L14" s="7">
+        <v>9</v>
+      </c>
+      <c r="N14" s="7">
+        <v>19</v>
+      </c>
+      <c r="O14" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7">
+        <v>45</v>
+      </c>
+      <c r="E15" s="7">
+        <v>34</v>
+      </c>
+      <c r="F15" s="7">
+        <v>44</v>
+      </c>
+      <c r="H15" s="7">
+        <v>17</v>
+      </c>
+      <c r="I15" s="7">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7">
+        <v>33</v>
+      </c>
+      <c r="L15" s="7">
+        <v>9</v>
+      </c>
+      <c r="N15" s="7">
+        <v>20</v>
+      </c>
+      <c r="O15" s="7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7">
+        <v>27</v>
+      </c>
+      <c r="C16" s="7">
+        <v>47</v>
+      </c>
+      <c r="E16" s="7">
+        <v>36</v>
+      </c>
+      <c r="F16" s="7">
+        <v>46</v>
+      </c>
+      <c r="H16" s="7">
+        <v>19</v>
+      </c>
+      <c r="I16" s="7">
+        <v>32</v>
+      </c>
+      <c r="K16" s="7">
+        <v>34</v>
+      </c>
+      <c r="L16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" s="7">
+        <v>22</v>
+      </c>
+      <c r="O16" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7">
+        <v>28</v>
+      </c>
+      <c r="C17" s="7">
+        <v>50</v>
+      </c>
+      <c r="E17" s="7">
+        <v>38</v>
+      </c>
+      <c r="F17" s="7">
+        <v>49</v>
+      </c>
+      <c r="H17" s="7">
+        <v>20</v>
+      </c>
+      <c r="I17" s="7">
+        <v>35</v>
+      </c>
+      <c r="K17" s="7">
+        <v>36</v>
+      </c>
+      <c r="L17" s="7">
+        <v>11</v>
+      </c>
+      <c r="N17" s="7">
+        <v>24</v>
+      </c>
+      <c r="O17" s="7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7">
+        <v>31</v>
+      </c>
+      <c r="C18" s="7">
+        <v>53</v>
+      </c>
+      <c r="E18" s="7">
+        <v>40</v>
+      </c>
+      <c r="F18" s="7">
+        <v>51</v>
+      </c>
+      <c r="H18" s="7">
+        <v>22</v>
+      </c>
+      <c r="I18" s="7">
+        <v>37</v>
+      </c>
+      <c r="K18" s="7">
+        <v>39</v>
+      </c>
+      <c r="L18" s="7">
+        <v>12</v>
+      </c>
+      <c r="N18" s="7">
+        <v>25</v>
+      </c>
+      <c r="O18" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7">
+        <v>33</v>
+      </c>
+      <c r="C19" s="7">
+        <v>56</v>
+      </c>
+      <c r="E19" s="7">
+        <v>42</v>
+      </c>
+      <c r="F19" s="7">
+        <v>54</v>
+      </c>
+      <c r="H19" s="7">
+        <v>23</v>
+      </c>
+      <c r="I19" s="7">
+        <v>40</v>
+      </c>
+      <c r="K19" s="7">
+        <v>41</v>
+      </c>
+      <c r="L19" s="7">
+        <v>14</v>
+      </c>
+      <c r="N19" s="7">
+        <v>28</v>
+      </c>
+      <c r="O19" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7">
+        <v>36</v>
+      </c>
+      <c r="C20" s="7">
+        <v>60</v>
+      </c>
+      <c r="E20" s="7">
+        <v>46</v>
+      </c>
+      <c r="F20" s="7">
+        <v>58</v>
+      </c>
+      <c r="H20" s="7">
+        <v>25</v>
+      </c>
+      <c r="I20" s="7">
+        <v>43</v>
+      </c>
+      <c r="K20" s="7">
+        <v>44</v>
+      </c>
+      <c r="L20" s="7">
+        <v>15</v>
+      </c>
+      <c r="N20" s="7">
+        <v>30</v>
+      </c>
+      <c r="O20" s="7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7">
+        <v>39</v>
+      </c>
+      <c r="C21" s="7">
+        <v>65</v>
+      </c>
+      <c r="E21" s="7">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
+        <v>28</v>
+      </c>
+      <c r="I21" s="7">
+        <v>47</v>
+      </c>
+      <c r="K21" s="7">
+        <v>48</v>
+      </c>
+      <c r="L21" s="7">
+        <v>17</v>
+      </c>
+      <c r="N21" s="7">
+        <v>33</v>
+      </c>
+      <c r="O21" s="7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7">
+        <v>45</v>
+      </c>
+      <c r="C22" s="7">
+        <v>72</v>
+      </c>
+      <c r="E22" s="7">
+        <v>56</v>
+      </c>
+      <c r="F22" s="7">
+        <v>70</v>
+      </c>
+      <c r="H22" s="7">
+        <v>33</v>
+      </c>
+      <c r="I22" s="7">
+        <v>53</v>
+      </c>
+      <c r="K22" s="7">
+        <v>54</v>
+      </c>
+      <c r="L22" s="7">
+        <v>20</v>
+      </c>
+      <c r="N22" s="7">
+        <v>38</v>
+      </c>
+      <c r="O22" s="7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2.2012199999999999E-2</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.54259400000000002</v>
+      </c>
+      <c r="E23" s="6">
+        <v>6.21156E-2</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.40247359999999999</v>
+      </c>
+      <c r="H23" s="6">
+        <v>7.3877999999999999E-3</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.4897996</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0.3822622</v>
+      </c>
+      <c r="L23" s="6">
+        <v>5.6240000000000001E-4</v>
+      </c>
+      <c r="N23" s="6">
+        <v>3.0108000000000001E-3</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0.76879059999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.1051454</v>
+      </c>
+      <c r="C24" s="6">
+        <v>7.4495000000000006E-2</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.12515899999999999</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.1057796</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.14428540000000001</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.1021152</v>
+      </c>
+      <c r="K24" s="6">
+        <v>3.7073200000000001E-2</v>
+      </c>
+      <c r="L24" s="6">
+        <v>9.7766199999999998E-2</v>
+      </c>
+      <c r="N24" s="6">
+        <v>4.8689400000000001E-2</v>
+      </c>
+      <c r="O24" s="6">
+        <v>2.6154199999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1152,1144 +2056,278 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:61">
-      <c r="B1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>29</v>
+    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="B1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
       <c r="BI1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:61">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <v>0.1755384</v>
+        <v>0.48404560000000002</v>
       </c>
       <c r="C2" s="6">
-        <v>0.809579</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0.3169286</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0.6647976</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0.2213716</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0.7525864</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0.9341296</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0.0523772</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0.0495656</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0.9442128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:61">
+        <v>0.49641279999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>23.1353822</v>
+        <v>30.292770399999998</v>
       </c>
       <c r="C3" s="7">
-        <v>42.0026348</v>
-      </c>
-      <c r="E3" s="7">
-        <v>31.1463788</v>
-      </c>
-      <c r="F3" s="7">
-        <v>40.9374396</v>
-      </c>
-      <c r="H3" s="7">
-        <v>15.691625</v>
-      </c>
-      <c r="I3" s="7">
-        <v>28.0772514</v>
-      </c>
-      <c r="K3" s="7">
-        <v>30.279145</v>
-      </c>
-      <c r="L3" s="7">
-        <v>8.6296624</v>
-      </c>
-      <c r="N3" s="7">
-        <v>19.1293304</v>
-      </c>
-      <c r="O3" s="7">
-        <v>53.7965206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:61">
+        <v>30.4502138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
-      </c>
-      <c r="E4" s="7">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7">
-        <v>16</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>8</v>
-      </c>
-      <c r="K4" s="7">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>3</v>
-      </c>
-      <c r="O4" s="7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7">
         <v>14</v>
       </c>
-      <c r="F5" s="7">
-        <v>20</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7">
-        <v>14</v>
-      </c>
-      <c r="L5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>6</v>
-      </c>
-      <c r="O5" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:61">
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7">
-        <v>24</v>
-      </c>
-      <c r="E6" s="7">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7">
-        <v>24</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>14</v>
-      </c>
-      <c r="K6" s="7">
-        <v>17</v>
-      </c>
-      <c r="L6" s="7">
-        <v>3</v>
-      </c>
-      <c r="N6" s="7">
-        <v>8</v>
-      </c>
-      <c r="O6" s="7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:61">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7">
-        <v>27</v>
-      </c>
-      <c r="E7" s="7">
-        <v>19</v>
-      </c>
-      <c r="F7" s="7">
-        <v>27</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>16</v>
-      </c>
-      <c r="K7" s="7">
-        <v>19</v>
-      </c>
-      <c r="L7" s="7">
-        <v>3</v>
-      </c>
-      <c r="N7" s="7">
-        <v>9</v>
-      </c>
-      <c r="O7" s="7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:61">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
-      </c>
-      <c r="E8" s="7">
-        <v>21</v>
-      </c>
-      <c r="F8" s="7">
-        <v>29</v>
-      </c>
-      <c r="H8" s="7">
-        <v>9</v>
-      </c>
-      <c r="I8" s="7">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7">
         <v>20</v>
       </c>
-      <c r="L8" s="7">
-        <v>3</v>
-      </c>
-      <c r="N8" s="7">
-        <v>11</v>
-      </c>
-      <c r="O8" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:61">
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7">
-        <v>32</v>
-      </c>
-      <c r="E9" s="7">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7">
-        <v>31</v>
-      </c>
-      <c r="H9" s="7">
-        <v>9</v>
-      </c>
-      <c r="I9" s="7">
-        <v>20</v>
-      </c>
-      <c r="K9" s="7">
         <v>22</v>
       </c>
-      <c r="L9" s="7">
-        <v>5</v>
-      </c>
-      <c r="N9" s="7">
-        <v>12</v>
-      </c>
-      <c r="O9" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:61">
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="7">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>34</v>
-      </c>
-      <c r="E10" s="7">
-        <v>25</v>
-      </c>
-      <c r="F10" s="7">
-        <v>34</v>
-      </c>
-      <c r="H10" s="7">
-        <v>11</v>
-      </c>
-      <c r="I10" s="7">
-        <v>22</v>
-      </c>
-      <c r="K10" s="7">
         <v>24</v>
       </c>
-      <c r="L10" s="7">
-        <v>6</v>
-      </c>
-      <c r="N10" s="7">
-        <v>14</v>
-      </c>
-      <c r="O10" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:61">
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C11" s="7">
-        <v>36</v>
-      </c>
-      <c r="E11" s="7">
-        <v>26</v>
-      </c>
-      <c r="F11" s="7">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7">
-        <v>23</v>
-      </c>
-      <c r="K11" s="7">
-        <v>26</v>
-      </c>
-      <c r="L11" s="7">
-        <v>6</v>
-      </c>
-      <c r="N11" s="7">
-        <v>15</v>
-      </c>
-      <c r="O11" s="7">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:61">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7">
-        <v>39</v>
-      </c>
-      <c r="E12" s="7">
         <v>28</v>
       </c>
-      <c r="F12" s="7">
-        <v>38</v>
-      </c>
-      <c r="H12" s="7">
-        <v>14</v>
-      </c>
-      <c r="I12" s="7">
-        <v>25</v>
-      </c>
-      <c r="K12" s="7">
-        <v>28</v>
-      </c>
-      <c r="L12" s="7">
-        <v>6</v>
-      </c>
-      <c r="N12" s="7">
-        <v>17</v>
-      </c>
-      <c r="O12" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:61">
+    </row>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>41</v>
-      </c>
-      <c r="E13" s="7">
-        <v>30</v>
-      </c>
-      <c r="F13" s="7">
-        <v>40</v>
-      </c>
-      <c r="H13" s="7">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7">
-        <v>27</v>
-      </c>
-      <c r="K13" s="7">
         <v>29</v>
       </c>
-      <c r="L13" s="7">
-        <v>8</v>
-      </c>
-      <c r="N13" s="7">
-        <v>18</v>
-      </c>
-      <c r="O13" s="7">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:61">
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C14" s="7">
-        <v>43</v>
-      </c>
-      <c r="E14" s="7">
-        <v>32</v>
-      </c>
-      <c r="F14" s="7">
-        <v>42</v>
-      </c>
-      <c r="H14" s="7">
-        <v>16</v>
-      </c>
-      <c r="I14" s="7">
-        <v>28</v>
-      </c>
-      <c r="K14" s="7">
         <v>31</v>
       </c>
-      <c r="L14" s="7">
-        <v>9</v>
-      </c>
-      <c r="N14" s="7">
-        <v>19</v>
-      </c>
-      <c r="O14" s="7">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:61">
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C15" s="7">
-        <v>45</v>
-      </c>
-      <c r="E15" s="7">
-        <v>34</v>
-      </c>
-      <c r="F15" s="7">
-        <v>44</v>
-      </c>
-      <c r="H15" s="7">
-        <v>17</v>
-      </c>
-      <c r="I15" s="7">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7">
         <v>33</v>
       </c>
-      <c r="L15" s="7">
-        <v>9</v>
-      </c>
-      <c r="N15" s="7">
-        <v>20</v>
-      </c>
-      <c r="O15" s="7">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:61">
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="7">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C16" s="7">
-        <v>47</v>
-      </c>
-      <c r="E16" s="7">
-        <v>36</v>
-      </c>
-      <c r="F16" s="7">
-        <v>46</v>
-      </c>
-      <c r="H16" s="7">
-        <v>19</v>
-      </c>
-      <c r="I16" s="7">
-        <v>32</v>
-      </c>
-      <c r="K16" s="7">
-        <v>34</v>
-      </c>
-      <c r="L16" s="7">
-        <v>10</v>
-      </c>
-      <c r="N16" s="7">
-        <v>22</v>
-      </c>
-      <c r="O16" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
-        <v>50</v>
-      </c>
-      <c r="E17" s="7">
-        <v>38</v>
-      </c>
-      <c r="F17" s="7">
-        <v>49</v>
-      </c>
-      <c r="H17" s="7">
-        <v>20</v>
-      </c>
-      <c r="I17" s="7">
-        <v>35</v>
-      </c>
-      <c r="K17" s="7">
-        <v>36</v>
-      </c>
-      <c r="L17" s="7">
-        <v>11</v>
-      </c>
-      <c r="N17" s="7">
-        <v>24</v>
-      </c>
-      <c r="O17" s="7">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C18" s="7">
-        <v>53</v>
-      </c>
-      <c r="E18" s="7">
-        <v>40</v>
-      </c>
-      <c r="F18" s="7">
-        <v>51</v>
-      </c>
-      <c r="H18" s="7">
-        <v>22</v>
-      </c>
-      <c r="I18" s="7">
-        <v>37</v>
-      </c>
-      <c r="K18" s="7">
         <v>39</v>
       </c>
-      <c r="L18" s="7">
-        <v>12</v>
-      </c>
-      <c r="N18" s="7">
-        <v>25</v>
-      </c>
-      <c r="O18" s="7">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C19" s="7">
-        <v>56</v>
-      </c>
-      <c r="E19" s="7">
         <v>42</v>
       </c>
-      <c r="F19" s="7">
-        <v>54</v>
-      </c>
-      <c r="H19" s="7">
-        <v>23</v>
-      </c>
-      <c r="I19" s="7">
-        <v>40</v>
-      </c>
-      <c r="K19" s="7">
-        <v>41</v>
-      </c>
-      <c r="L19" s="7">
-        <v>14</v>
-      </c>
-      <c r="N19" s="7">
-        <v>28</v>
-      </c>
-      <c r="O19" s="7">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="7">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
-        <v>60</v>
-      </c>
-      <c r="E20" s="7">
-        <v>46</v>
-      </c>
-      <c r="F20" s="7">
-        <v>58</v>
-      </c>
-      <c r="H20" s="7">
-        <v>25</v>
-      </c>
-      <c r="I20" s="7">
-        <v>43</v>
-      </c>
-      <c r="K20" s="7">
-        <v>44</v>
-      </c>
-      <c r="L20" s="7">
-        <v>15</v>
-      </c>
-      <c r="N20" s="7">
-        <v>30</v>
-      </c>
-      <c r="O20" s="7">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C21" s="7">
-        <v>65</v>
-      </c>
-      <c r="E21" s="7">
         <v>50</v>
       </c>
-      <c r="F21" s="7">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>28</v>
-      </c>
-      <c r="I21" s="7">
-        <v>47</v>
-      </c>
-      <c r="K21" s="7">
-        <v>48</v>
-      </c>
-      <c r="L21" s="7">
-        <v>17</v>
-      </c>
-      <c r="N21" s="7">
-        <v>33</v>
-      </c>
-      <c r="O21" s="7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="7">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C22" s="7">
-        <v>72</v>
-      </c>
-      <c r="E22" s="7">
         <v>56</v>
       </c>
-      <c r="F22" s="7">
-        <v>70</v>
-      </c>
-      <c r="H22" s="7">
-        <v>33</v>
-      </c>
-      <c r="I22" s="7">
-        <v>53</v>
-      </c>
-      <c r="K22" s="7">
-        <v>54</v>
-      </c>
-      <c r="L22" s="7">
-        <v>20</v>
-      </c>
-      <c r="N22" s="7">
-        <v>38</v>
-      </c>
-      <c r="O22" s="7">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="6">
-        <v>0.0220122</v>
+        <v>0.14440040000000001</v>
       </c>
       <c r="C23" s="6">
-        <v>0.542594</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0.0621156</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0.4024736</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0.0073878</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0.4897996</v>
-      </c>
-      <c r="K23" s="6">
-        <v>0.3822622</v>
-      </c>
-      <c r="L23" s="6">
-        <v>0.0005624</v>
-      </c>
-      <c r="N23" s="6">
-        <v>0.0030108</v>
-      </c>
-      <c r="O23" s="6">
-        <v>0.7687906</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.189195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>0.1051454</v>
+        <v>0.13606679999999999</v>
       </c>
       <c r="C24" s="6">
-        <v>0.074495</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0.125159</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0.1057796</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0.1442854</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0.1021152</v>
-      </c>
-      <c r="K24" s="6">
-        <v>0.0370732</v>
-      </c>
-      <c r="L24" s="6">
-        <v>0.0977662</v>
-      </c>
-      <c r="N24" s="6">
-        <v>0.0486894</v>
-      </c>
-      <c r="O24" s="6">
-        <v>0.0261542</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:61">
-      <c r="B1" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:61">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0.4840456</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.4964128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:61">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
-        <v>30.2927704</v>
-      </c>
-      <c r="C3" s="7">
-        <v>30.4502138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:61">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:61">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:61">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:61">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7">
-        <v>17</v>
-      </c>
-      <c r="C7" s="7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:61">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
-        <v>19</v>
-      </c>
-      <c r="C8" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:61">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7">
-        <v>22</v>
-      </c>
-      <c r="C9" s="7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:61">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
-        <v>24</v>
-      </c>
-      <c r="C10" s="7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:61">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7">
-        <v>25</v>
-      </c>
-      <c r="C11" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:61">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7">
-        <v>27</v>
-      </c>
-      <c r="C12" s="7">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:61">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7">
-        <v>30</v>
-      </c>
-      <c r="C13" s="7">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:61">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7">
-        <v>32</v>
-      </c>
-      <c r="C14" s="7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:61">
-      <c r="A15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7">
-        <v>33</v>
-      </c>
-      <c r="C15" s="7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:61">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7">
-        <v>35</v>
-      </c>
-      <c r="C16" s="7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7">
-        <v>38</v>
-      </c>
-      <c r="C17" s="7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7">
-        <v>40</v>
-      </c>
-      <c r="C18" s="7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7">
-        <v>43</v>
-      </c>
-      <c r="C19" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7">
-        <v>46</v>
-      </c>
-      <c r="C20" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7">
-        <v>51</v>
-      </c>
-      <c r="C21" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="7">
-        <v>57</v>
-      </c>
-      <c r="C22" s="7">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6">
-        <v>0.1444004</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0.189195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6">
-        <v>0.1360668</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0.1324914</v>
+        <v>0.13249140000000001</v>
       </c>
     </row>
   </sheetData>

--- a/2016SuperRugby/Weekly Forecasts/Round_9.xlsx
+++ b/2016SuperRugby/Weekly Forecasts/Round_9.xlsx
@@ -734,7 +734,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
